--- a/mock/data.xlsx
+++ b/mock/data.xlsx
@@ -20,42 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frank</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backdoor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A program whose primary purpose is to allow a threat actor to interactively issue commands to the system on which it is installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A test catagory is here. Please delete me later.</t>
   </si>
 </sst>
 </file>
@@ -70,6 +52,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -158,10 +141,10 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -170,141 +153,75 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
